--- a/public/assets/images/tasks.xlsx
+++ b/public/assets/images/tasks.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A7med\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital2\public\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task2" sheetId="1" r:id="rId1"/>
     <sheet name="task3" sheetId="2" r:id="rId2"/>
+    <sheet name="edittask3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>authentication</t>
   </si>
@@ -213,6 +214,27 @@
   </si>
   <si>
     <t>3 hours</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 5 min</t>
+  </si>
+  <si>
+    <t>crud patient and doctors</t>
+  </si>
+  <si>
+    <t>1.5 hour</t>
+  </si>
+  <si>
+    <t>adminpanel</t>
+  </si>
+  <si>
+    <t>crud list</t>
+  </si>
+  <si>
+    <t>edit api/front</t>
   </si>
 </sst>
 </file>
@@ -770,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,17 +955,170 @@
         <v>51</v>
       </c>
     </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
